--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Leap2-Ghsr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Leap2-Ghsr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,25 +525,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.483211333333333</v>
+        <v>0.9420959999999999</v>
       </c>
       <c r="H2">
-        <v>4.449634</v>
+        <v>2.826288</v>
       </c>
       <c r="I2">
-        <v>0.2917763896239454</v>
+        <v>0.2074065050464874</v>
       </c>
       <c r="J2">
-        <v>0.2917763896239454</v>
+        <v>0.2074065050464874</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,33 +552,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.3246166666666667</v>
+        <v>0.1546876666666667</v>
       </c>
       <c r="N2">
-        <v>0.97385</v>
+        <v>0.464063</v>
       </c>
       <c r="O2">
-        <v>0.6772662880160344</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.6772662880160344</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.4814751189888888</v>
+        <v>0.145730632016</v>
       </c>
       <c r="R2">
-        <v>4.333276070899999</v>
+        <v>1.311575688144</v>
       </c>
       <c r="S2">
-        <v>0.1976103123313296</v>
+        <v>0.2074065050464874</v>
       </c>
       <c r="T2">
-        <v>0.1976103123313296</v>
+        <v>0.2074065050464874</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.483211333333333</v>
+        <v>2.587073666666666</v>
       </c>
       <c r="H3">
-        <v>4.449634</v>
+        <v>7.761221</v>
       </c>
       <c r="I3">
-        <v>0.2917763896239454</v>
+        <v>0.5695554460491655</v>
       </c>
       <c r="J3">
-        <v>0.2917763896239454</v>
+        <v>0.5695554460491655</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,27 +620,27 @@
         <v>0.464063</v>
       </c>
       <c r="O3">
-        <v>0.3227337119839657</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.3227337119839657</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.2294345003268889</v>
+        <v>0.4001883889914444</v>
       </c>
       <c r="R3">
-        <v>2.064910502942</v>
+        <v>3.601695500923</v>
       </c>
       <c r="S3">
-        <v>0.09416607729261574</v>
+        <v>0.5695554460491655</v>
       </c>
       <c r="T3">
-        <v>0.09416607729261574</v>
+        <v>0.5695554460491655</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.587073666666666</v>
+        <v>1.013098666666667</v>
       </c>
       <c r="H4">
-        <v>7.761221</v>
+        <v>3.039296</v>
       </c>
       <c r="I4">
-        <v>0.5089274853737514</v>
+        <v>0.223038048904347</v>
       </c>
       <c r="J4">
-        <v>0.5089274853737514</v>
+        <v>0.223038048904347</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,214 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3246166666666667</v>
+        <v>0.1546876666666667</v>
       </c>
       <c r="N4">
-        <v>0.97385</v>
+        <v>0.464063</v>
       </c>
       <c r="O4">
-        <v>0.6772662880160344</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.6772662880160344</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.8398072300944444</v>
+        <v>0.1567138688497778</v>
       </c>
       <c r="R4">
-        <v>7.55826507085</v>
+        <v>1.410424819648</v>
       </c>
       <c r="S4">
-        <v>0.3446794288884152</v>
+        <v>0.223038048904347</v>
       </c>
       <c r="T4">
-        <v>0.3446794288884152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.587073666666666</v>
-      </c>
-      <c r="H5">
-        <v>7.761221</v>
-      </c>
-      <c r="I5">
-        <v>0.5089274853737514</v>
-      </c>
-      <c r="J5">
-        <v>0.5089274853737514</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.1546876666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.464063</v>
-      </c>
-      <c r="O5">
-        <v>0.3227337119839657</v>
-      </c>
-      <c r="P5">
-        <v>0.3227337119839657</v>
-      </c>
-      <c r="Q5">
-        <v>0.4001883889914444</v>
-      </c>
-      <c r="R5">
-        <v>3.601695500923</v>
-      </c>
-      <c r="S5">
-        <v>0.1642480564853362</v>
-      </c>
-      <c r="T5">
-        <v>0.1642480564853362</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.013098666666667</v>
-      </c>
-      <c r="H6">
-        <v>3.039296</v>
-      </c>
-      <c r="I6">
-        <v>0.1992961250023033</v>
-      </c>
-      <c r="J6">
-        <v>0.1992961250023033</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.3246166666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.97385</v>
-      </c>
-      <c r="O6">
-        <v>0.6772662880160344</v>
-      </c>
-      <c r="P6">
-        <v>0.6772662880160344</v>
-      </c>
-      <c r="Q6">
-        <v>0.3288687121777777</v>
-      </c>
-      <c r="R6">
-        <v>2.9598184096</v>
-      </c>
-      <c r="S6">
-        <v>0.1349765467962895</v>
-      </c>
-      <c r="T6">
-        <v>0.1349765467962895</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.013098666666667</v>
-      </c>
-      <c r="H7">
-        <v>3.039296</v>
-      </c>
-      <c r="I7">
-        <v>0.1992961250023033</v>
-      </c>
-      <c r="J7">
-        <v>0.1992961250023033</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.1546876666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.464063</v>
-      </c>
-      <c r="O7">
-        <v>0.3227337119839657</v>
-      </c>
-      <c r="P7">
-        <v>0.3227337119839657</v>
-      </c>
-      <c r="Q7">
-        <v>0.1567138688497778</v>
-      </c>
-      <c r="R7">
-        <v>1.410424819648</v>
-      </c>
-      <c r="S7">
-        <v>0.06431957820601376</v>
-      </c>
-      <c r="T7">
-        <v>0.06431957820601376</v>
+        <v>0.223038048904347</v>
       </c>
     </row>
   </sheetData>
